--- a/src/main/resources/FetchData/CRM_BillerConfigOnus_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_BillerConfigOnus_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eeft-my.sharepoint.com/personal/sdhara_euronetworldwide_com/Documents/Documents/New_Auto_WorkSpace/Framework_BundleUpProjects-main/src/main/resources/FetchData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="519" documentId="13_ncr:1_{968933C6-2541-4B1A-9D00-1088F1B65C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6A0207-BC04-467C-9070-BAF8B1CC9C49}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF13A77-DA95-4CC5-ACC2-1A8812E7BF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Data" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="117">
   <si>
     <t>Environment</t>
   </si>
@@ -789,41 +778,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV21"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD21"/>
+      <selection activeCell="A4" sqref="A4:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" customWidth="1"/>
-    <col min="10" max="10" width="26.6328125" customWidth="1"/>
-    <col min="11" max="13" width="30.26953125" customWidth="1"/>
-    <col min="22" max="24" width="11.36328125" customWidth="1"/>
-    <col min="25" max="25" width="26.26953125" customWidth="1"/>
-    <col min="26" max="26" width="63.7265625" customWidth="1"/>
-    <col min="27" max="27" width="67.90625" customWidth="1"/>
-    <col min="28" max="28" width="71.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="11" max="13" width="30.21875" customWidth="1"/>
+    <col min="22" max="24" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="26.21875" customWidth="1"/>
+    <col min="26" max="26" width="63.77734375" customWidth="1"/>
+    <col min="27" max="27" width="67.88671875" customWidth="1"/>
+    <col min="28" max="28" width="71.21875" customWidth="1"/>
     <col min="29" max="29" width="64" customWidth="1"/>
-    <col min="30" max="30" width="71.08984375" customWidth="1"/>
-    <col min="31" max="31" width="72.453125" customWidth="1"/>
-    <col min="32" max="32" width="64.81640625" customWidth="1"/>
-    <col min="33" max="33" width="68.08984375" customWidth="1"/>
-    <col min="34" max="34" width="62.36328125" customWidth="1"/>
-    <col min="35" max="35" width="67.08984375" customWidth="1"/>
-    <col min="36" max="36" width="26.26953125" customWidth="1"/>
-    <col min="37" max="44" width="27.08984375" customWidth="1"/>
-    <col min="45" max="70" width="22.81640625" customWidth="1"/>
-    <col min="72" max="72" width="22.453125" customWidth="1"/>
+    <col min="30" max="30" width="71.109375" customWidth="1"/>
+    <col min="31" max="31" width="72.44140625" customWidth="1"/>
+    <col min="32" max="32" width="64.77734375" customWidth="1"/>
+    <col min="33" max="33" width="68.109375" customWidth="1"/>
+    <col min="34" max="34" width="62.33203125" customWidth="1"/>
+    <col min="35" max="35" width="67.109375" customWidth="1"/>
+    <col min="36" max="36" width="26.21875" customWidth="1"/>
+    <col min="37" max="44" width="27.109375" customWidth="1"/>
+    <col min="45" max="70" width="22.77734375" customWidth="1"/>
+    <col min="72" max="72" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:72" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1246,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1471,3936 +1460,6 @@
       </c>
       <c r="BT3" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT5" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT6" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ6" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA6" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS6" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT6" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU7" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR7" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT7" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS8" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU8" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ8" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA8" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB8" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS8" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT8" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV9" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC9" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR9" s="9"/>
-      <c r="BS9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT9" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ10" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA10" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC10" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR10" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="BS10" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT10" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ11" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB11" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS11" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT11" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC12" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK12" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR12" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT12" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT13" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT14" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BU15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BU16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BU17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BU18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BU19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BU20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BU21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV21" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5434,263 +1493,6 @@
     <hyperlink ref="BG3" r:id="rId26" xr:uid="{AD8905B0-C8A3-4C30-AEFF-27612BC43312}"/>
     <hyperlink ref="BI3" r:id="rId27" xr:uid="{B5FCFF88-F048-4D6C-B1D4-75196284EC09}"/>
     <hyperlink ref="BK3" r:id="rId28" xr:uid="{58F7A769-9E18-46C2-B778-17B801063319}"/>
-    <hyperlink ref="AA4" r:id="rId29" xr:uid="{8267ABBF-B47A-4640-BE42-C187876DFF11}"/>
-    <hyperlink ref="AC4" r:id="rId30" xr:uid="{75D18C99-AD02-44E9-A8F2-34436944BE80}"/>
-    <hyperlink ref="AE4" r:id="rId31" xr:uid="{80625232-D80E-4364-A748-F8BDC19FA0B6}"/>
-    <hyperlink ref="AG4" r:id="rId32" xr:uid="{6087BC5D-6FB7-4613-B169-1993054DCAA0}"/>
-    <hyperlink ref="AI4" r:id="rId33" xr:uid="{9C2DDECE-887C-467A-ADCA-F83C30BD8ECE}"/>
-    <hyperlink ref="AK4" r:id="rId34" xr:uid="{7B6178AF-97BB-413B-861F-671F5BC6B069}"/>
-    <hyperlink ref="AM4" r:id="rId35" xr:uid="{FE9E8185-6E87-42FD-A8FE-2458C7F57209}"/>
-    <hyperlink ref="AO4" r:id="rId36" xr:uid="{78473D86-5F8A-439B-8088-200923857C47}"/>
-    <hyperlink ref="AQ4" r:id="rId37" xr:uid="{21C7FB56-57FF-49D5-8E88-7669C77D9315}"/>
-    <hyperlink ref="AY4" r:id="rId38" xr:uid="{1698660A-2DF6-4E90-B11C-61D5A80B092A}"/>
-    <hyperlink ref="BE4" r:id="rId39" xr:uid="{2BD3E537-7DF6-4CCF-BFCD-138E38A17783}"/>
-    <hyperlink ref="BG4" r:id="rId40" xr:uid="{4B81935A-A8B6-47D7-8579-891197556875}"/>
-    <hyperlink ref="BI4" r:id="rId41" xr:uid="{A1E4B253-B45C-4D77-977C-556F6ECF5708}"/>
-    <hyperlink ref="BK4" r:id="rId42" xr:uid="{28FB9041-95A3-432E-882F-DAA6578E9C22}"/>
-    <hyperlink ref="AA5" r:id="rId43" xr:uid="{406DD514-56AC-41A0-86B0-33EF1C55DF84}"/>
-    <hyperlink ref="AC5" r:id="rId44" xr:uid="{40F0A266-50A9-45D7-A1C8-336F0E8F4264}"/>
-    <hyperlink ref="AE5" r:id="rId45" xr:uid="{2B1505D5-1CAC-4509-AD75-A9BBEAE63A53}"/>
-    <hyperlink ref="AG5" r:id="rId46" xr:uid="{572DDECC-CAC6-436E-816B-163C82BB1DD2}"/>
-    <hyperlink ref="AI5" r:id="rId47" xr:uid="{9A0D1DF3-4FE3-49A4-8A0B-214634E86EA5}"/>
-    <hyperlink ref="AK5" r:id="rId48" xr:uid="{26FC43DD-1047-4E6E-AB04-34F7918A9CD8}"/>
-    <hyperlink ref="AM5" r:id="rId49" xr:uid="{ADA9F274-9520-4E2D-B4A5-C552E6054248}"/>
-    <hyperlink ref="AO5" r:id="rId50" xr:uid="{B740A0E9-CDFF-41BE-BDA5-434E9E8564B3}"/>
-    <hyperlink ref="AQ5" r:id="rId51" xr:uid="{FB1413BB-4C30-471E-A989-5DE056F68292}"/>
-    <hyperlink ref="AY5" r:id="rId52" xr:uid="{EE57EE5B-385D-41D3-9C2F-991845CD5766}"/>
-    <hyperlink ref="BE5" r:id="rId53" xr:uid="{7F07802A-DBDE-49C0-B3C7-1C0CAF624AAF}"/>
-    <hyperlink ref="BG5" r:id="rId54" xr:uid="{59E08D38-D125-4172-A8E0-389CF48B17FB}"/>
-    <hyperlink ref="BI5" r:id="rId55" xr:uid="{0A76B460-07F9-488F-AA7F-30A80550267D}"/>
-    <hyperlink ref="BK5" r:id="rId56" xr:uid="{6BC222BA-B84F-4FE6-BD89-009CA544A7FC}"/>
-    <hyperlink ref="AA6" r:id="rId57" xr:uid="{E74274BE-63C6-43DA-8B23-A72FD0321AF7}"/>
-    <hyperlink ref="AC6" r:id="rId58" xr:uid="{602A2CC1-6A18-4F9C-B41D-976E129D0AB7}"/>
-    <hyperlink ref="AG6" r:id="rId59" xr:uid="{4666000D-64A0-424C-AD3F-A0AAB7744AC5}"/>
-    <hyperlink ref="AI6" r:id="rId60" xr:uid="{C9662C0D-66CD-49AA-B880-E873E31F8A2E}"/>
-    <hyperlink ref="AK6" r:id="rId61" xr:uid="{99D4E6DC-B611-43C5-B83E-7FC18FDEBD0A}"/>
-    <hyperlink ref="AM6" r:id="rId62" xr:uid="{5151CC9D-36A9-40E8-A3E7-7C750DFE76DA}"/>
-    <hyperlink ref="AO6" r:id="rId63" xr:uid="{4F957BE8-633D-4314-857C-52BFA79F93ED}"/>
-    <hyperlink ref="AQ6" r:id="rId64" xr:uid="{B34CD04E-7C6A-45E3-8A08-E695783248C8}"/>
-    <hyperlink ref="AY6" r:id="rId65" xr:uid="{28B6F590-A915-4F44-8133-650371C49A35}"/>
-    <hyperlink ref="BE6" r:id="rId66" xr:uid="{60EE6843-9334-45F2-83EE-ACEA1EB652B6}"/>
-    <hyperlink ref="BG6" r:id="rId67" xr:uid="{41DDC994-2444-4EDE-8D20-CF04990DD478}"/>
-    <hyperlink ref="BI6" r:id="rId68" xr:uid="{5E9D53D9-99D4-41CA-B99A-E5BED89AED69}"/>
-    <hyperlink ref="BK6" r:id="rId69" xr:uid="{9A81DEA0-69CA-40B8-BF3A-D6A4922F85BB}"/>
-    <hyperlink ref="AA7" r:id="rId70" xr:uid="{E21F4643-4703-455F-B197-608F1ADDDCDC}"/>
-    <hyperlink ref="AC7" r:id="rId71" xr:uid="{F4AADE84-93CC-4FA0-80BE-C039BAEA5E13}"/>
-    <hyperlink ref="AE7" r:id="rId72" xr:uid="{32A5F78B-48F0-4119-A920-8D7DC2386B19}"/>
-    <hyperlink ref="AK7" r:id="rId73" xr:uid="{0A0FD2BE-5276-47D5-8CC7-44D8C24A3B76}"/>
-    <hyperlink ref="AM7" r:id="rId74" xr:uid="{40C195D3-145B-4A6B-8394-39414B528807}"/>
-    <hyperlink ref="AO7" r:id="rId75" xr:uid="{6D7334C8-6F6A-4EDE-A953-31756F5568A6}"/>
-    <hyperlink ref="AQ7" r:id="rId76" xr:uid="{D5A318AB-51FA-4F62-BAD3-B5CB83119CA6}"/>
-    <hyperlink ref="AY7" r:id="rId77" xr:uid="{AE9FD13E-4257-4CE8-AABC-31F114482451}"/>
-    <hyperlink ref="BE7" r:id="rId78" xr:uid="{1FBE33BA-9B7D-4756-9E70-2643A44EACC8}"/>
-    <hyperlink ref="BG7" r:id="rId79" xr:uid="{B2C23BBB-329B-4366-8AD1-06A09D8708DE}"/>
-    <hyperlink ref="BI7" r:id="rId80" xr:uid="{19030C98-5998-4EC5-B390-272DA4EBDA83}"/>
-    <hyperlink ref="BK7" r:id="rId81" xr:uid="{1C2FF22A-3685-4887-B66D-B1CB38146DE0}"/>
-    <hyperlink ref="AA8" r:id="rId82" xr:uid="{01B453D4-68E8-47C3-AAF0-ED0A61ED735C}"/>
-    <hyperlink ref="AC8" r:id="rId83" xr:uid="{CAF52489-4A2F-4734-B5D5-50345105D559}"/>
-    <hyperlink ref="AE8" r:id="rId84" xr:uid="{C9C36585-66BE-4522-B722-075B722C1AEA}"/>
-    <hyperlink ref="AG8" r:id="rId85" xr:uid="{140E75BF-69F5-42F0-827E-55D32DE59D3C}"/>
-    <hyperlink ref="AI8" r:id="rId86" xr:uid="{4045837F-9A04-4E92-BC96-67D8616B6E63}"/>
-    <hyperlink ref="AK8" r:id="rId87" xr:uid="{24D52CCD-530B-43E1-94BB-FFCA0B447D18}"/>
-    <hyperlink ref="AM8" r:id="rId88" xr:uid="{7449A4FB-A3B6-4978-A336-509DEC9C8197}"/>
-    <hyperlink ref="AO8" r:id="rId89" xr:uid="{25BD8E6B-A286-4907-8BE7-F0D53F5A4F62}"/>
-    <hyperlink ref="AQ8" r:id="rId90" xr:uid="{23C897D0-4BC3-4D32-90F6-97D29BC2D89E}"/>
-    <hyperlink ref="AY8" r:id="rId91" xr:uid="{A97037C3-6A85-4BBC-8808-719F89ACF22F}"/>
-    <hyperlink ref="BE8" r:id="rId92" xr:uid="{FB1332FD-A139-4863-B788-208030881B10}"/>
-    <hyperlink ref="BG8" r:id="rId93" xr:uid="{1B3498F6-1F5B-44CF-BBCB-A1D2BD0FE3B3}"/>
-    <hyperlink ref="BI8" r:id="rId94" xr:uid="{4786648A-AA80-4E7B-AF3D-533ED3699D20}"/>
-    <hyperlink ref="BK8" r:id="rId95" xr:uid="{412D7B55-B6C5-46C2-A0A8-F7BBFE4F24F9}"/>
-    <hyperlink ref="AA9" r:id="rId96" xr:uid="{F1FBE2B4-034C-4DDA-9369-F39774E03E77}"/>
-    <hyperlink ref="AC9" r:id="rId97" xr:uid="{FF37139F-7281-4681-98A3-B8CCFA4D1E06}"/>
-    <hyperlink ref="AE9" r:id="rId98" xr:uid="{DF449DF8-D17E-4E1F-8E49-7300DAE8BD55}"/>
-    <hyperlink ref="AG9" r:id="rId99" xr:uid="{298D76E8-4881-4D59-B64A-13E5A532AC24}"/>
-    <hyperlink ref="AI9" r:id="rId100" xr:uid="{37D3DA88-EDAA-4A60-A5E8-A810E63DEAC3}"/>
-    <hyperlink ref="AK9" r:id="rId101" xr:uid="{95974B1E-0247-4B13-80BE-EF3527FF355F}"/>
-    <hyperlink ref="AM9" r:id="rId102" xr:uid="{C580C144-D841-4DEF-A419-80126A823E4F}"/>
-    <hyperlink ref="AO9" r:id="rId103" xr:uid="{8C8BEDE1-1A4E-4B68-8E98-4A0F45A67D84}"/>
-    <hyperlink ref="AQ9" r:id="rId104" xr:uid="{0F39A88B-2D57-46F3-8E81-B4B09D2A7DCA}"/>
-    <hyperlink ref="AY9" r:id="rId105" xr:uid="{C68D5883-A16B-466C-939B-8DE36089ADD2}"/>
-    <hyperlink ref="BE9" r:id="rId106" xr:uid="{D06F25EA-C787-4A1A-8972-F248E64C89B4}"/>
-    <hyperlink ref="BG9" r:id="rId107" xr:uid="{3BC91EEA-16CE-4FE9-8723-2921E754DE39}"/>
-    <hyperlink ref="BI9" r:id="rId108" xr:uid="{67AD616F-3B5A-4193-A1ED-C515696D1FA1}"/>
-    <hyperlink ref="BK9" r:id="rId109" xr:uid="{0E021769-C8D0-471E-880F-F2B52E3280CF}"/>
-    <hyperlink ref="AA10" r:id="rId110" xr:uid="{8A106ED1-46D5-4A78-AEDB-5E2D1B58114B}"/>
-    <hyperlink ref="AC10" r:id="rId111" xr:uid="{1AD9D494-4A34-4E36-A11D-18ADE540416A}"/>
-    <hyperlink ref="AE10" r:id="rId112" xr:uid="{C320FD86-AF31-4A0A-90FB-3D6399CD1BE7}"/>
-    <hyperlink ref="AG10" r:id="rId113" xr:uid="{123E3839-796C-4AF7-8754-41BF36624E41}"/>
-    <hyperlink ref="AI10" r:id="rId114" xr:uid="{2C731196-0DFC-4530-A66E-13B75CCD035F}"/>
-    <hyperlink ref="AK10" r:id="rId115" xr:uid="{B7EE79ED-481B-40D7-8691-35CCBC1D574B}"/>
-    <hyperlink ref="AM10" r:id="rId116" xr:uid="{79434BBB-785A-46FF-B44D-0E7119CC7C0F}"/>
-    <hyperlink ref="AO10" r:id="rId117" xr:uid="{B1E7468F-79A4-4E8E-A64C-265C79193963}"/>
-    <hyperlink ref="AQ10" r:id="rId118" xr:uid="{19DFACA2-53F0-4D0A-90B2-9505D275A8FC}"/>
-    <hyperlink ref="AY10" r:id="rId119" xr:uid="{F5D3D4EB-7823-49E1-8AE2-DCC424F36EFE}"/>
-    <hyperlink ref="BE10" r:id="rId120" xr:uid="{562EE71A-B527-4972-899D-D4DC0B0E5132}"/>
-    <hyperlink ref="BG10" r:id="rId121" xr:uid="{9D0C6024-E976-4FC5-BEF4-4D9DD4CAD467}"/>
-    <hyperlink ref="BI10" r:id="rId122" xr:uid="{C821947B-85EA-4FD0-AA8A-009D7D1FF3EC}"/>
-    <hyperlink ref="BK10" r:id="rId123" xr:uid="{880D53DF-CBDA-4C80-AE43-6AB2674A5B46}"/>
-    <hyperlink ref="AA11" r:id="rId124" xr:uid="{672E4F84-13E5-4465-A3D4-272AE17A76C0}"/>
-    <hyperlink ref="AC11" r:id="rId125" xr:uid="{05D1591A-0660-46C9-AF04-E4A397714F5A}"/>
-    <hyperlink ref="AE11" r:id="rId126" xr:uid="{0E19C351-B326-400F-A985-41F6E4B248A4}"/>
-    <hyperlink ref="AG11" r:id="rId127" xr:uid="{F18512C9-AC5B-4CAB-BD2B-8DEB9F20ED36}"/>
-    <hyperlink ref="AI11" r:id="rId128" xr:uid="{2DCCA6E9-98CA-47E4-BEC8-5A6BF5E2C750}"/>
-    <hyperlink ref="AK11" r:id="rId129" xr:uid="{191EB0D6-9548-48C9-A1C5-D5B5000689D3}"/>
-    <hyperlink ref="AM11" r:id="rId130" xr:uid="{16DEBC11-F518-4403-8335-00449BA79613}"/>
-    <hyperlink ref="AO11" r:id="rId131" xr:uid="{997508DF-A38B-451C-B043-FDD8174EA006}"/>
-    <hyperlink ref="AQ11" r:id="rId132" xr:uid="{3A9B2C24-E9BD-4A46-A3CB-85BDBE8044E1}"/>
-    <hyperlink ref="AY11" r:id="rId133" xr:uid="{91ECF4D0-314D-4720-8479-6277A4B7E21F}"/>
-    <hyperlink ref="BE11" r:id="rId134" xr:uid="{13C5EAF1-5CE6-4CAA-9F92-52AAC27C8306}"/>
-    <hyperlink ref="BG11" r:id="rId135" xr:uid="{09B171EC-B61C-4A43-B14B-331EAAA0C07B}"/>
-    <hyperlink ref="BI11" r:id="rId136" xr:uid="{CC32D615-A620-4A1B-BDF2-B784A46F2F61}"/>
-    <hyperlink ref="BK11" r:id="rId137" xr:uid="{0A4889F7-6B48-4C64-9614-E2A2D65C83DB}"/>
-    <hyperlink ref="AA12" r:id="rId138" xr:uid="{CFBAF1D4-1004-4173-84C7-B33A90965B7A}"/>
-    <hyperlink ref="AC12" r:id="rId139" xr:uid="{2F0C371B-FCA0-4173-B117-B7C842F7E9F6}"/>
-    <hyperlink ref="AE12" r:id="rId140" xr:uid="{92011443-A27C-4CA0-A982-400DEB395397}"/>
-    <hyperlink ref="AG12" r:id="rId141" xr:uid="{B5330E86-D267-41E6-9D82-D8349F57C363}"/>
-    <hyperlink ref="AI12" r:id="rId142" xr:uid="{CBBD5D44-04EB-4323-B383-06A5C064374B}"/>
-    <hyperlink ref="AK12" r:id="rId143" xr:uid="{D5CCF583-8FBD-44C0-9E23-1B4B0A82A74A}"/>
-    <hyperlink ref="AM12" r:id="rId144" xr:uid="{4B28712C-F0A2-4801-8749-A43CFE2FD37C}"/>
-    <hyperlink ref="AO12" r:id="rId145" xr:uid="{4AD35068-E69C-46EE-807C-2D27490D5477}"/>
-    <hyperlink ref="AQ12" r:id="rId146" xr:uid="{69E86AA9-8B7A-453F-B498-F61743A1ADDD}"/>
-    <hyperlink ref="AY12" r:id="rId147" xr:uid="{4806DBCC-4217-4C38-85FE-32FEC43F14A5}"/>
-    <hyperlink ref="BE12" r:id="rId148" xr:uid="{71D80A5F-F997-4A3C-AD7B-91C83DDB2136}"/>
-    <hyperlink ref="BG12" r:id="rId149" xr:uid="{444752D3-CD5D-4287-BD99-98BB9127A70B}"/>
-    <hyperlink ref="BI12" r:id="rId150" xr:uid="{9D71E81D-A8E2-4089-B4BE-F2832476C568}"/>
-    <hyperlink ref="BK12" r:id="rId151" xr:uid="{D156CF79-6CE4-46C2-8316-EE4E1BD23191}"/>
-    <hyperlink ref="AD6" r:id="rId152" xr:uid="{3CE50FA1-9DB7-4CD4-BA1B-76F65E091F96}"/>
-    <hyperlink ref="AD7" r:id="rId153" xr:uid="{8FF4F5FD-7096-4FC6-9AB0-225632F6B601}"/>
-    <hyperlink ref="AD8" r:id="rId154" xr:uid="{7C9B3355-8FF3-4CDD-B67B-BA3FC64CFFA6}"/>
-    <hyperlink ref="AD9" r:id="rId155" xr:uid="{8623F5E9-9784-49A6-9D95-8AEF35AB6B75}"/>
-    <hyperlink ref="AD10" r:id="rId156" xr:uid="{03FF8F53-D7FC-437F-B317-FA0DDC49AAD6}"/>
-    <hyperlink ref="AD11" r:id="rId157" xr:uid="{597AF2C8-2C0D-41BA-9DF8-36C13DFF6732}"/>
-    <hyperlink ref="AD12" r:id="rId158" xr:uid="{D8B69472-4996-4196-9F25-3F11688A7AF0}"/>
-    <hyperlink ref="AG7" r:id="rId159" xr:uid="{EAB4126B-D717-4CF9-8733-548158645F87}"/>
-    <hyperlink ref="AA13" r:id="rId160" xr:uid="{2CB8A7BF-DE91-499C-B14D-9AAE476E77F8}"/>
-    <hyperlink ref="AC13" r:id="rId161" xr:uid="{C9B43724-2F85-4031-8BB7-03BCFA00ED6C}"/>
-    <hyperlink ref="AE13" r:id="rId162" xr:uid="{7221F902-1D58-4EB1-B4DE-1C26E150A4D3}"/>
-    <hyperlink ref="AG13" r:id="rId163" xr:uid="{87298D63-B7E3-46BA-B079-B0E01319B9DC}"/>
-    <hyperlink ref="AI13" r:id="rId164" xr:uid="{04E0BCF7-EB73-4AB7-B10B-B80A1A45E1D6}"/>
-    <hyperlink ref="AK13" r:id="rId165" xr:uid="{628A3219-4CF5-4981-A857-74B7505E0B8E}"/>
-    <hyperlink ref="AM13" r:id="rId166" xr:uid="{488A71D6-8858-453C-90D2-FCEE3A545137}"/>
-    <hyperlink ref="AO13" r:id="rId167" xr:uid="{24A6AD3D-79EC-499D-9A43-D00E5895F643}"/>
-    <hyperlink ref="AQ13" r:id="rId168" xr:uid="{6E63AEBE-9326-403E-B70F-0CCED31CC4EA}"/>
-    <hyperlink ref="AY13" r:id="rId169" xr:uid="{D77FED13-8298-4C53-AE3F-7DD7C03D16CF}"/>
-    <hyperlink ref="BE13" r:id="rId170" xr:uid="{74FC1243-5535-43FF-84F6-21879A65E133}"/>
-    <hyperlink ref="BG13" r:id="rId171" xr:uid="{06832B74-D165-432D-934D-B94AF5673F7C}"/>
-    <hyperlink ref="BI13" r:id="rId172" xr:uid="{E7B4C7D1-BD39-405C-A57D-3FB638C6EDDB}"/>
-    <hyperlink ref="BK13" r:id="rId173" xr:uid="{703729CC-C0FB-4DE4-A5B2-1E7447DB20F0}"/>
-    <hyperlink ref="AA14" r:id="rId174" xr:uid="{E715AAFA-86AB-41EF-BFCE-F38B32687185}"/>
-    <hyperlink ref="AC14" r:id="rId175" xr:uid="{00048903-7E13-47F3-8CE9-AF9342AE748F}"/>
-    <hyperlink ref="AE14" r:id="rId176" xr:uid="{0695C045-5035-4389-95AA-D5374B10FAE6}"/>
-    <hyperlink ref="AG14" r:id="rId177" xr:uid="{B1E40B24-4386-4055-A6C4-B7E0707BFCB6}"/>
-    <hyperlink ref="AI14" r:id="rId178" xr:uid="{52F546A1-3902-4556-9DDC-D2B2CDB9C5A9}"/>
-    <hyperlink ref="AK14" r:id="rId179" xr:uid="{1A159418-12A3-4D99-90E9-33505A8DE92A}"/>
-    <hyperlink ref="AM14" r:id="rId180" xr:uid="{8205F560-06BE-430B-BA8C-1098A3A8C779}"/>
-    <hyperlink ref="AO14" r:id="rId181" xr:uid="{50567E7B-9566-4636-B64A-72F69CC405A2}"/>
-    <hyperlink ref="AQ14" r:id="rId182" xr:uid="{54EE81F9-6B7A-4E00-9D8C-79CC77F841CC}"/>
-    <hyperlink ref="AY14" r:id="rId183" xr:uid="{B6127E12-508A-4055-8674-020A8E56B3F1}"/>
-    <hyperlink ref="BE14" r:id="rId184" xr:uid="{3CA002BA-8726-4364-8159-BB3DD0928CA9}"/>
-    <hyperlink ref="BG14" r:id="rId185" xr:uid="{BB133787-7E89-4DFB-AFD3-FEEAA03757D6}"/>
-    <hyperlink ref="BI14" r:id="rId186" xr:uid="{1643746B-3709-4B33-8DD0-9A9467594E56}"/>
-    <hyperlink ref="BK14" r:id="rId187" xr:uid="{339F90EE-9CEA-4684-829C-BF98DC1E44B1}"/>
-    <hyperlink ref="AA15" r:id="rId188" xr:uid="{4129A832-104D-4674-AA96-6ACFD0D51943}"/>
-    <hyperlink ref="AC15" r:id="rId189" xr:uid="{ECDD7351-5086-4A32-864A-47E0CD39C653}"/>
-    <hyperlink ref="AE15" r:id="rId190" xr:uid="{9B358589-22C0-4271-80FA-BCC9C5DAD330}"/>
-    <hyperlink ref="AG15" r:id="rId191" xr:uid="{4A304DFD-6BB3-41C6-975D-8C1795C7539E}"/>
-    <hyperlink ref="AI15" r:id="rId192" xr:uid="{48528313-16B8-41D8-AC3F-15173F8841CB}"/>
-    <hyperlink ref="AK15" r:id="rId193" xr:uid="{03A0F6C4-E2C3-4ADE-8992-7FC77F5A67B7}"/>
-    <hyperlink ref="AM15" r:id="rId194" xr:uid="{7977E451-2CC2-4598-BC42-9DF22FEC02E8}"/>
-    <hyperlink ref="AO15" r:id="rId195" xr:uid="{1530FD44-0CAD-4B36-8274-AD8710894F73}"/>
-    <hyperlink ref="AQ15" r:id="rId196" xr:uid="{FAFA0C57-A5AE-4A9B-91B1-35C55CE39485}"/>
-    <hyperlink ref="BA15" r:id="rId197" xr:uid="{3335BD6E-E188-4217-8E75-56F80B08D621}"/>
-    <hyperlink ref="BG15" r:id="rId198" xr:uid="{A32CF18C-1932-40B0-B575-FDE189AE87BE}"/>
-    <hyperlink ref="BI15" r:id="rId199" xr:uid="{B8415E71-11EF-40D8-A4BB-DFDCEF1A197D}"/>
-    <hyperlink ref="BK15" r:id="rId200" xr:uid="{A89C57D0-BDC7-471A-9CE3-E0E81ADA8093}"/>
-    <hyperlink ref="BM15" r:id="rId201" xr:uid="{09A26B8E-5EB5-43BD-8318-88164122657A}"/>
-    <hyperlink ref="AA16" r:id="rId202" xr:uid="{71BFFABD-C8F3-4073-B0F9-CC2E2F7F481B}"/>
-    <hyperlink ref="AC16" r:id="rId203" xr:uid="{6AF8F1E4-8ECE-4205-BC25-2C6E140E2A4B}"/>
-    <hyperlink ref="AE16" r:id="rId204" xr:uid="{7BD0A06B-84BD-43DB-9811-E09DB4BB2A1C}"/>
-    <hyperlink ref="AG16" r:id="rId205" xr:uid="{3BDFB827-AC92-42F3-B7BF-678FAAFBAE2C}"/>
-    <hyperlink ref="AI16" r:id="rId206" xr:uid="{2EE33E7C-DFC3-4887-BE6C-F58F8774EC56}"/>
-    <hyperlink ref="AK16" r:id="rId207" xr:uid="{6705BA59-29F1-4DD2-9F9C-6A67C593B50A}"/>
-    <hyperlink ref="AM16" r:id="rId208" xr:uid="{3B064A09-DD57-41E0-8B2A-31517D323144}"/>
-    <hyperlink ref="AO16" r:id="rId209" xr:uid="{F2AEA07C-459C-40FC-B002-8F522978FA01}"/>
-    <hyperlink ref="AQ16" r:id="rId210" xr:uid="{5CB01A3A-9904-4F3E-A710-4A71089D3110}"/>
-    <hyperlink ref="BA16" r:id="rId211" xr:uid="{BA78427A-C8F1-4650-99B2-F5BA8B33E807}"/>
-    <hyperlink ref="BG16" r:id="rId212" xr:uid="{DE71D896-4BAD-4987-AE3D-368B6C3F3D2A}"/>
-    <hyperlink ref="BI16" r:id="rId213" xr:uid="{CACD54EF-FBC0-4F5F-9885-9C1EB38569B2}"/>
-    <hyperlink ref="BK16" r:id="rId214" xr:uid="{BEDBA7B6-A4E9-4A75-B128-E2F51CBC2A7F}"/>
-    <hyperlink ref="BM16" r:id="rId215" xr:uid="{C53AF0EE-445C-4387-B103-0B894D85501D}"/>
-    <hyperlink ref="AA17" r:id="rId216" xr:uid="{137C4965-4525-445A-8C77-D2381407E881}"/>
-    <hyperlink ref="AC17" r:id="rId217" xr:uid="{288A8E6D-FA59-490F-8D29-13719616C49C}"/>
-    <hyperlink ref="AE17" r:id="rId218" xr:uid="{F2E46531-BCF5-4504-A3B1-868D9503F962}"/>
-    <hyperlink ref="AG17" r:id="rId219" xr:uid="{8EC90D22-557A-42C6-9802-196D20FA85E0}"/>
-    <hyperlink ref="AI17" r:id="rId220" xr:uid="{82CF7636-9831-4B6E-BC04-F1FED8226803}"/>
-    <hyperlink ref="AK17" r:id="rId221" xr:uid="{79A534FA-CF6A-4196-A378-FEAE481D605B}"/>
-    <hyperlink ref="AM17" r:id="rId222" xr:uid="{31050D03-D31F-4B7F-9C4C-946EA52527FC}"/>
-    <hyperlink ref="AO17" r:id="rId223" xr:uid="{68E98928-7DB5-46A5-967E-762E1BABD222}"/>
-    <hyperlink ref="AQ17" r:id="rId224" xr:uid="{3C325C73-AF54-406D-991E-4ED97B142288}"/>
-    <hyperlink ref="BA17" r:id="rId225" xr:uid="{D22B4B63-08A4-46D9-BC7F-676537A219A6}"/>
-    <hyperlink ref="BG17" r:id="rId226" xr:uid="{65D8DFB1-960B-4328-86EF-889FAB02DA32}"/>
-    <hyperlink ref="BI17" r:id="rId227" xr:uid="{FB4F77B6-5C2B-4816-BFFA-37E8B2D26B46}"/>
-    <hyperlink ref="BK17" r:id="rId228" xr:uid="{A7C152ED-4F9A-42E1-B124-E47E3A70B383}"/>
-    <hyperlink ref="BM17" r:id="rId229" xr:uid="{6003DE58-9AD1-449C-A96C-53BA69821C07}"/>
-    <hyperlink ref="AA18" r:id="rId230" xr:uid="{E0DE8282-AEB5-447F-8D55-38C709BE2D99}"/>
-    <hyperlink ref="AC18" r:id="rId231" xr:uid="{2AEDA85C-8C52-4605-9680-3408A672D2A7}"/>
-    <hyperlink ref="AE18" r:id="rId232" xr:uid="{5BE5AC6D-AE26-4EF2-B2AB-9648FA09A253}"/>
-    <hyperlink ref="AG18" r:id="rId233" xr:uid="{F3986A69-24A6-4638-9F53-7876952C4EEE}"/>
-    <hyperlink ref="AI18" r:id="rId234" xr:uid="{C52EB614-05DB-403B-9413-A10949618985}"/>
-    <hyperlink ref="AK18" r:id="rId235" xr:uid="{FB38785F-2566-412C-B5BB-AABE3DC0EA34}"/>
-    <hyperlink ref="AM18" r:id="rId236" xr:uid="{6D6D8AD8-DC32-43B4-B3DC-377CA07B3C16}"/>
-    <hyperlink ref="AO18" r:id="rId237" xr:uid="{180BD9A6-C4C0-4BD2-9B48-71278317EF77}"/>
-    <hyperlink ref="AQ18" r:id="rId238" xr:uid="{774AD157-336F-42C9-A56B-EBFF967CC9C6}"/>
-    <hyperlink ref="BA18" r:id="rId239" xr:uid="{F3B3C2EB-EC63-4AA6-B9E1-325FF047466F}"/>
-    <hyperlink ref="BG18" r:id="rId240" xr:uid="{AF320EDE-FA6E-4A1E-9D40-5345F1969B47}"/>
-    <hyperlink ref="BI18" r:id="rId241" xr:uid="{82EE8958-BE6A-4290-AD1F-27A73B643BA6}"/>
-    <hyperlink ref="BK18" r:id="rId242" xr:uid="{FB79ED9A-CFD5-4720-B23D-ABBC43F0A9FD}"/>
-    <hyperlink ref="BM18" r:id="rId243" xr:uid="{0619BEAF-95E0-4C8B-95D8-2BD601D10CAC}"/>
-    <hyperlink ref="AA19" r:id="rId244" xr:uid="{24155AC7-FD5D-4EFE-BCA4-0F4389A4F023}"/>
-    <hyperlink ref="AC19" r:id="rId245" xr:uid="{0A3CC28E-76C1-4BC9-B35E-CB2AC2C9ABA8}"/>
-    <hyperlink ref="AE19" r:id="rId246" xr:uid="{669DC7DB-03CE-4739-B35E-44C0F35D6599}"/>
-    <hyperlink ref="AG19" r:id="rId247" xr:uid="{290C36F1-4C8A-4D51-9F56-6F2880E6FDCB}"/>
-    <hyperlink ref="AI19" r:id="rId248" xr:uid="{24890A3D-22DD-45F2-A31D-05A6ACB3C48C}"/>
-    <hyperlink ref="AK19" r:id="rId249" xr:uid="{CF449E04-184E-47AB-BBE4-EC539F06873F}"/>
-    <hyperlink ref="AM19" r:id="rId250" xr:uid="{93603D55-3F4E-4243-BA6F-F500B2B0BDDC}"/>
-    <hyperlink ref="AO19" r:id="rId251" xr:uid="{E04FA2F0-A398-488C-A7E6-A8D7CE137107}"/>
-    <hyperlink ref="AQ19" r:id="rId252" xr:uid="{45DA6600-DE6E-46DB-AB3B-CDC1D8F15901}"/>
-    <hyperlink ref="BA19" r:id="rId253" xr:uid="{CFC51B88-1735-4154-BABD-C265ECD96427}"/>
-    <hyperlink ref="BG19" r:id="rId254" xr:uid="{EE715D25-EB0B-44D2-8A51-576A354A3922}"/>
-    <hyperlink ref="BI19" r:id="rId255" xr:uid="{F52B84F5-9271-45D6-A1E9-D10FD7D5C8DB}"/>
-    <hyperlink ref="BK19" r:id="rId256" xr:uid="{78A5D6B1-5E98-456C-A368-9A9E1E8E24BD}"/>
-    <hyperlink ref="BM19" r:id="rId257" xr:uid="{2B22E2F5-A765-4D99-A70C-95102A291B75}"/>
-    <hyperlink ref="AA21" r:id="rId258" xr:uid="{BDEC8AF3-6768-4592-B49C-637F19217731}"/>
-    <hyperlink ref="AC21" r:id="rId259" xr:uid="{D2FDD1E5-8DE3-4448-99D8-CA783A7EF355}"/>
-    <hyperlink ref="AE21" r:id="rId260" xr:uid="{C06395DF-6609-4467-8D56-4D93E63B6641}"/>
-    <hyperlink ref="AG21" r:id="rId261" xr:uid="{DB209D60-AA62-4F8C-9953-96B400D2E043}"/>
-    <hyperlink ref="AI21" r:id="rId262" xr:uid="{6B311341-C219-4B3F-AC76-7F269512612F}"/>
-    <hyperlink ref="AK21" r:id="rId263" xr:uid="{51EC3932-0450-4A87-BFCD-0F3044C6D53D}"/>
-    <hyperlink ref="AM21" r:id="rId264" xr:uid="{C70603D9-459C-4F63-8EB0-66A8D120CA3E}"/>
-    <hyperlink ref="AO21" r:id="rId265" xr:uid="{F54805C3-E96F-4EAE-893C-DB68C1446AE7}"/>
-    <hyperlink ref="AQ21" r:id="rId266" xr:uid="{11DEE520-27FC-429C-B3B9-BF03049A1F5B}"/>
-    <hyperlink ref="BA21" r:id="rId267" xr:uid="{D095A4EF-1A12-457F-9749-9CF080DD3C79}"/>
-    <hyperlink ref="BG21" r:id="rId268" xr:uid="{C8701330-01DB-439A-8778-5FD80AE1E0C4}"/>
-    <hyperlink ref="BI21" r:id="rId269" xr:uid="{52C7468F-CD77-444A-BC67-52BE08352EB5}"/>
-    <hyperlink ref="BK21" r:id="rId270" xr:uid="{E7538150-D11C-4BE8-A310-42C62168D3D2}"/>
-    <hyperlink ref="BM21" r:id="rId271" xr:uid="{C8B05620-D161-4239-B21E-C26F224954D8}"/>
-    <hyperlink ref="AA20" r:id="rId272" xr:uid="{0FBBD1E9-86E6-4A88-B6D0-1395A764B2F3}"/>
-    <hyperlink ref="AC20" r:id="rId273" xr:uid="{8004BEFD-E1F8-46B5-8242-55ABC0AF0DCC}"/>
-    <hyperlink ref="AE20" r:id="rId274" xr:uid="{8DC37879-D92E-4D95-B2C4-BDC82D03596F}"/>
-    <hyperlink ref="AG20" r:id="rId275" xr:uid="{0DE3C699-1823-4C62-BC6C-5FBF784FEFF8}"/>
-    <hyperlink ref="AI20" r:id="rId276" xr:uid="{36D01B38-68A3-41E8-94F3-9C81068DFA4D}"/>
-    <hyperlink ref="AK20" r:id="rId277" xr:uid="{0C5B5966-8C8D-4265-BCB6-A484DD7D0897}"/>
-    <hyperlink ref="AM20" r:id="rId278" xr:uid="{B95D8407-982D-4662-A42E-1D62F2D01851}"/>
-    <hyperlink ref="AO20" r:id="rId279" xr:uid="{558F1F7C-DB85-4458-A959-6DBD934AAC09}"/>
-    <hyperlink ref="AQ20" r:id="rId280" xr:uid="{9D380894-E638-4B59-8738-940FE0E5FC7A}"/>
-    <hyperlink ref="BA20" r:id="rId281" xr:uid="{B8291D5B-EAC9-4EA9-BF30-6400A0B578F0}"/>
-    <hyperlink ref="BG20" r:id="rId282" xr:uid="{2D9E4C85-D3AB-428F-81EA-FB43CB31E00F}"/>
-    <hyperlink ref="BI20" r:id="rId283" xr:uid="{8AD55A48-1FD8-421D-A0CE-137390542E46}"/>
-    <hyperlink ref="BK20" r:id="rId284" xr:uid="{88F25B7C-D31D-4157-A31F-151BB8F2013A}"/>
-    <hyperlink ref="BM20" r:id="rId285" xr:uid="{5B70578D-A87D-4138-BD19-D8ACFB8F3CCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5707,34 +1509,34 @@
       <selection activeCell="A18" sqref="A2:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" customWidth="1"/>
-    <col min="10" max="10" width="26.6328125" customWidth="1"/>
-    <col min="11" max="13" width="30.26953125" customWidth="1"/>
-    <col min="25" max="25" width="26.26953125" customWidth="1"/>
-    <col min="26" max="26" width="63.7265625" customWidth="1"/>
-    <col min="27" max="27" width="67.90625" customWidth="1"/>
-    <col min="28" max="28" width="71.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="11" max="13" width="30.21875" customWidth="1"/>
+    <col min="25" max="25" width="26.21875" customWidth="1"/>
+    <col min="26" max="26" width="63.77734375" customWidth="1"/>
+    <col min="27" max="27" width="67.88671875" customWidth="1"/>
+    <col min="28" max="28" width="71.21875" customWidth="1"/>
     <col min="29" max="29" width="64" customWidth="1"/>
-    <col min="30" max="30" width="71.08984375" customWidth="1"/>
-    <col min="31" max="31" width="72.453125" customWidth="1"/>
-    <col min="32" max="32" width="64.81640625" customWidth="1"/>
-    <col min="33" max="33" width="68.08984375" customWidth="1"/>
-    <col min="34" max="34" width="62.36328125" customWidth="1"/>
-    <col min="35" max="35" width="67.08984375" customWidth="1"/>
-    <col min="36" max="36" width="26.26953125" customWidth="1"/>
-    <col min="37" max="44" width="27.08984375" customWidth="1"/>
-    <col min="45" max="70" width="22.81640625" customWidth="1"/>
-    <col min="72" max="72" width="22.453125" customWidth="1"/>
+    <col min="30" max="30" width="71.109375" customWidth="1"/>
+    <col min="31" max="31" width="72.44140625" customWidth="1"/>
+    <col min="32" max="32" width="64.77734375" customWidth="1"/>
+    <col min="33" max="33" width="68.109375" customWidth="1"/>
+    <col min="34" max="34" width="62.33203125" customWidth="1"/>
+    <col min="35" max="35" width="67.109375" customWidth="1"/>
+    <col min="36" max="36" width="26.21875" customWidth="1"/>
+    <col min="37" max="44" width="27.109375" customWidth="1"/>
+    <col min="45" max="70" width="22.77734375" customWidth="1"/>
+    <col min="72" max="72" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5952,7 +1754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -6168,7 +1970,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -6384,7 +2186,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -6600,7 +2402,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -6816,7 +2618,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -7032,7 +2834,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -7250,7 +3052,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -7468,7 +3270,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -7686,7 +3488,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -7902,7 +3704,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8120,7 +3922,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -8342,7 +4144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -8564,7 +4366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -8786,7 +4588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -9008,7 +4810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -9230,7 +5032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -9452,7 +5254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -9922,13 +5724,13 @@
       <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.36328125" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
